--- a/Code/Results/Cases/Case_2_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9905519495323258</v>
+        <v>1.018787195804972</v>
       </c>
       <c r="D2">
-        <v>1.010658379911791</v>
+        <v>1.025207213978797</v>
       </c>
       <c r="E2">
-        <v>1.012247659085665</v>
+        <v>1.047026912938945</v>
       </c>
       <c r="F2">
-        <v>1.01702048151115</v>
+        <v>1.050834632974161</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039896838243889</v>
+        <v>1.029813525044201</v>
       </c>
       <c r="J2">
-        <v>1.013018969808923</v>
+        <v>1.023993650164586</v>
       </c>
       <c r="K2">
-        <v>1.021971197092353</v>
+        <v>1.028033461103018</v>
       </c>
       <c r="L2">
-        <v>1.023538961370128</v>
+        <v>1.049790700560008</v>
       </c>
       <c r="M2">
-        <v>1.028247679275238</v>
+        <v>1.053587809174155</v>
       </c>
       <c r="N2">
-        <v>1.008356720937039</v>
+        <v>1.012088632271986</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9944386824792611</v>
+        <v>1.019607034777099</v>
       </c>
       <c r="D3">
-        <v>1.01340175989931</v>
+        <v>1.025801775569234</v>
       </c>
       <c r="E3">
-        <v>1.016731131459345</v>
+        <v>1.048066251768544</v>
       </c>
       <c r="F3">
-        <v>1.021594693814839</v>
+        <v>1.051885928316401</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040723135646049</v>
+        <v>1.029928579032239</v>
       </c>
       <c r="J3">
-        <v>1.015082111362021</v>
+        <v>1.024450641096581</v>
       </c>
       <c r="K3">
-        <v>1.023865987029856</v>
+        <v>1.028435854714587</v>
       </c>
       <c r="L3">
-        <v>1.027154318141338</v>
+        <v>1.050641210117141</v>
       </c>
       <c r="M3">
-        <v>1.031958525770089</v>
+        <v>1.054451015415647</v>
       </c>
       <c r="N3">
-        <v>1.009048096908674</v>
+        <v>1.012240820814844</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9969055432882873</v>
+        <v>1.020137989574242</v>
       </c>
       <c r="D4">
-        <v>1.015144639079406</v>
+        <v>1.026186683588852</v>
       </c>
       <c r="E4">
-        <v>1.019582290137268</v>
+        <v>1.048739939061301</v>
       </c>
       <c r="F4">
-        <v>1.024501965574266</v>
+        <v>1.052567178993945</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041236951313555</v>
+        <v>1.030001768523249</v>
       </c>
       <c r="J4">
-        <v>1.016388738187729</v>
+        <v>1.024746168894025</v>
       </c>
       <c r="K4">
-        <v>1.025063654260728</v>
+        <v>1.028695721129177</v>
       </c>
       <c r="L4">
-        <v>1.029449982173956</v>
+        <v>1.051192107020271</v>
       </c>
       <c r="M4">
-        <v>1.034313400641322</v>
+        <v>1.055009956545016</v>
       </c>
       <c r="N4">
-        <v>1.009485841606845</v>
+        <v>1.012339204552825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9979314584286356</v>
+        <v>1.0203613126653</v>
       </c>
       <c r="D5">
-        <v>1.015869822383692</v>
+        <v>1.026348542003271</v>
       </c>
       <c r="E5">
-        <v>1.020769392632948</v>
+        <v>1.049023435280809</v>
       </c>
       <c r="F5">
-        <v>1.025712044876296</v>
+        <v>1.052853813281808</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041448050375019</v>
+        <v>1.030032235587651</v>
       </c>
       <c r="J5">
-        <v>1.016931434811624</v>
+        <v>1.024870365598228</v>
       </c>
       <c r="K5">
-        <v>1.025560517861606</v>
+        <v>1.028804845910927</v>
       </c>
       <c r="L5">
-        <v>1.030404966193837</v>
+        <v>1.051423837358037</v>
       </c>
       <c r="M5">
-        <v>1.035292667880145</v>
+        <v>1.055245027527797</v>
       </c>
       <c r="N5">
-        <v>1.009667625023796</v>
+        <v>1.012380542553146</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.998103070395052</v>
+        <v>1.020398815986051</v>
       </c>
       <c r="D6">
-        <v>1.015991148420155</v>
+        <v>1.026375721221205</v>
       </c>
       <c r="E6">
-        <v>1.020968048774117</v>
+        <v>1.049071051822616</v>
       </c>
       <c r="F6">
-        <v>1.025914523243708</v>
+        <v>1.052901954278134</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041483209317361</v>
+        <v>1.030037333426892</v>
       </c>
       <c r="J6">
-        <v>1.017022173500034</v>
+        <v>1.024891216207961</v>
       </c>
       <c r="K6">
-        <v>1.025643558856849</v>
+        <v>1.028823161191817</v>
       </c>
       <c r="L6">
-        <v>1.030564729104535</v>
+        <v>1.051462753691855</v>
       </c>
       <c r="M6">
-        <v>1.035456472563187</v>
+        <v>1.055284502354211</v>
       </c>
       <c r="N6">
-        <v>1.009698017308762</v>
+        <v>1.012387482053</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9969192949679201</v>
+        <v>1.020140973199075</v>
       </c>
       <c r="D7">
-        <v>1.015154358312096</v>
+        <v>1.026188846181719</v>
       </c>
       <c r="E7">
-        <v>1.019598196983556</v>
+        <v>1.048743726060182</v>
       </c>
       <c r="F7">
-        <v>1.024518181834356</v>
+        <v>1.052571008087345</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041239791210627</v>
+        <v>1.03000217681226</v>
       </c>
       <c r="J7">
-        <v>1.01639601546229</v>
+        <v>1.024747828587486</v>
       </c>
       <c r="K7">
-        <v>1.025070319242293</v>
+        <v>1.028697179744855</v>
       </c>
       <c r="L7">
-        <v>1.029462782000198</v>
+        <v>1.051195202889768</v>
       </c>
       <c r="M7">
-        <v>1.034326527323712</v>
+        <v>1.05501309721421</v>
       </c>
       <c r="N7">
-        <v>1.00948827934854</v>
+        <v>1.012339757002207</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9918756773253175</v>
+        <v>1.019064167258114</v>
       </c>
       <c r="D8">
-        <v>1.011592324885795</v>
+        <v>1.025408109150697</v>
       </c>
       <c r="E8">
-        <v>1.013773478758035</v>
+        <v>1.047377920445314</v>
       </c>
       <c r="F8">
-        <v>1.018577511881693</v>
+        <v>1.051189717061055</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04018045885237</v>
+        <v>1.029852668223087</v>
       </c>
       <c r="J8">
-        <v>1.013722202744066</v>
+        <v>1.024148128164965</v>
       </c>
       <c r="K8">
-        <v>1.022617527343744</v>
+        <v>1.028169556632767</v>
       </c>
       <c r="L8">
-        <v>1.024770056501644</v>
+        <v>1.050078017699466</v>
       </c>
       <c r="M8">
-        <v>1.02951158422124</v>
+        <v>1.053879452630546</v>
       </c>
       <c r="N8">
-        <v>1.008592403360277</v>
+        <v>1.012140084001919</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9826023659807955</v>
+        <v>1.017170315598358</v>
       </c>
       <c r="D9">
-        <v>1.005058837223005</v>
+        <v>1.024033855725973</v>
       </c>
       <c r="E9">
-        <v>1.003106529458313</v>
+        <v>1.04498016574835</v>
       </c>
       <c r="F9">
-        <v>1.007685852482817</v>
+        <v>1.048763352199288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038150096316659</v>
+        <v>1.029579605627125</v>
       </c>
       <c r="J9">
-        <v>1.008784800267861</v>
+        <v>1.023090079616053</v>
       </c>
       <c r="K9">
-        <v>1.01807036808589</v>
+        <v>1.027235969169979</v>
       </c>
       <c r="L9">
-        <v>1.016149405660142</v>
+        <v>1.048113724687039</v>
       </c>
       <c r="M9">
-        <v>1.020655450820889</v>
+        <v>1.051884848800182</v>
       </c>
       <c r="N9">
-        <v>1.006937268272173</v>
+        <v>1.011787544274542</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9761351551341731</v>
+        <v>1.015910264834407</v>
       </c>
       <c r="D10">
-        <v>1.000516440542847</v>
+        <v>1.02311879754191</v>
       </c>
       <c r="E10">
-        <v>0.9956938454005415</v>
+        <v>1.04338774906076</v>
       </c>
       <c r="F10">
-        <v>1.000108967115804</v>
+        <v>1.047150978311389</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036680574465186</v>
+        <v>1.02939113861469</v>
       </c>
       <c r="J10">
-        <v>1.005328696523197</v>
+        <v>1.022383903573019</v>
       </c>
       <c r="K10">
-        <v>1.014876376752582</v>
+        <v>1.026611059390858</v>
       </c>
       <c r="L10">
-        <v>1.010141286511404</v>
+        <v>1.046807158087158</v>
       </c>
       <c r="M10">
-        <v>1.014476254406395</v>
+        <v>1.050557203200968</v>
       </c>
       <c r="N10">
-        <v>1.005778279004424</v>
+        <v>1.011552077089852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9732610323718955</v>
+        <v>1.015365263579589</v>
       </c>
       <c r="D11">
-        <v>0.9985018591052334</v>
+        <v>1.022722851536198</v>
       </c>
       <c r="E11">
-        <v>0.9924052670848328</v>
+        <v>1.042699670093717</v>
       </c>
       <c r="F11">
-        <v>0.9967457081532851</v>
+        <v>1.046454049236553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03601533147534</v>
+        <v>1.029308013756052</v>
       </c>
       <c r="J11">
-        <v>1.003790100143744</v>
+        <v>1.022077942656774</v>
       </c>
       <c r="K11">
-        <v>1.013452083579904</v>
+        <v>1.026339883795899</v>
       </c>
       <c r="L11">
-        <v>1.007471844395559</v>
+        <v>1.046242113265107</v>
       </c>
       <c r="M11">
-        <v>1.011729257711851</v>
+        <v>1.049982825674315</v>
       </c>
       <c r="N11">
-        <v>1.005262249009414</v>
+        <v>1.011450017593224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.97218180864538</v>
+        <v>1.015162918747787</v>
       </c>
       <c r="D12">
-        <v>0.9977460800885124</v>
+        <v>1.022575823338899</v>
       </c>
       <c r="E12">
-        <v>0.9911712274732372</v>
+        <v>1.042444305344987</v>
       </c>
       <c r="F12">
-        <v>0.995483375747358</v>
+        <v>1.046195365931827</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035763753558424</v>
+        <v>1.029276910086729</v>
       </c>
       <c r="J12">
-        <v>1.003211996108295</v>
+        <v>1.021964268859148</v>
       </c>
       <c r="K12">
-        <v>1.012916589417575</v>
+        <v>1.026239070289585</v>
       </c>
       <c r="L12">
-        <v>1.006469550310165</v>
+        <v>1.046032337492084</v>
       </c>
       <c r="M12">
-        <v>1.010697621753088</v>
+        <v>1.049769552586861</v>
       </c>
       <c r="N12">
-        <v>1.005068351040097</v>
+        <v>1.011412093421991</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9724138422581153</v>
+        <v>1.015206318174663</v>
       </c>
       <c r="D13">
-        <v>0.9979085406173314</v>
+        <v>1.022607359378343</v>
       </c>
       <c r="E13">
-        <v>0.9914365107634182</v>
+        <v>1.042499072052521</v>
       </c>
       <c r="F13">
-        <v>0.995754753219956</v>
+        <v>1.046250845892686</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035817922662768</v>
+        <v>1.029283592210257</v>
       </c>
       <c r="J13">
-        <v>1.003336304759958</v>
+        <v>1.021988653447339</v>
       </c>
       <c r="K13">
-        <v>1.01303175067583</v>
+        <v>1.026260699039014</v>
       </c>
       <c r="L13">
-        <v>1.006685041155723</v>
+        <v>1.04607733025126</v>
       </c>
       <c r="M13">
-        <v>1.010919430929074</v>
+        <v>1.049815296920628</v>
       </c>
       <c r="N13">
-        <v>1.005110044865074</v>
+        <v>1.011420228945735</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9731720643675384</v>
+        <v>1.015348535789431</v>
       </c>
       <c r="D14">
-        <v>0.9984395404882846</v>
+        <v>1.022710697236783</v>
       </c>
       <c r="E14">
-        <v>0.992303520329</v>
+        <v>1.04267855710321</v>
       </c>
       <c r="F14">
-        <v>0.9966416340799152</v>
+        <v>1.04643266256975</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035994628081969</v>
+        <v>1.02930544735251</v>
       </c>
       <c r="J14">
-        <v>1.003742450213314</v>
+        <v>1.022068546875404</v>
       </c>
       <c r="K14">
-        <v>1.013407952493657</v>
+        <v>1.026331552284374</v>
       </c>
       <c r="L14">
-        <v>1.007389216917361</v>
+        <v>1.046224770946231</v>
       </c>
       <c r="M14">
-        <v>1.01164421580541</v>
+        <v>1.049965194892573</v>
       </c>
       <c r="N14">
-        <v>1.005246267207</v>
+        <v>1.011446883067623</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9736376693216776</v>
+        <v>1.015436173107754</v>
       </c>
       <c r="D15">
-        <v>0.9987657071449605</v>
+        <v>1.022774372953169</v>
       </c>
       <c r="E15">
-        <v>0.9928360343313527</v>
+        <v>1.042789172735286</v>
       </c>
       <c r="F15">
-        <v>0.9971863176847676</v>
+        <v>1.046544710658072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036102904819992</v>
+        <v>1.029318882912079</v>
       </c>
       <c r="J15">
-        <v>1.003991806520173</v>
+        <v>1.022117768401138</v>
       </c>
       <c r="K15">
-        <v>1.01363888072933</v>
+        <v>1.026375195837792</v>
       </c>
       <c r="L15">
-        <v>1.00782164218535</v>
+        <v>1.046315628231227</v>
       </c>
       <c r="M15">
-        <v>1.012089267803798</v>
+        <v>1.050057562118272</v>
       </c>
       <c r="N15">
-        <v>1.005329901101009</v>
+        <v>1.011463303611658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9763242996040269</v>
+        <v>1.015946447723925</v>
       </c>
       <c r="D16">
-        <v>1.000649110935184</v>
+        <v>1.023145081221656</v>
       </c>
       <c r="E16">
-        <v>0.9959103802540205</v>
+        <v>1.043433445177271</v>
       </c>
       <c r="F16">
-        <v>1.000330381570466</v>
+        <v>1.047197257395409</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03672410396783</v>
+        <v>1.029396623417123</v>
       </c>
       <c r="J16">
-        <v>1.005429898120433</v>
+        <v>1.022404205446495</v>
       </c>
       <c r="K16">
-        <v>1.01497001205027</v>
+        <v>1.026629044183954</v>
       </c>
       <c r="L16">
-        <v>1.010316972574532</v>
+        <v>1.046844673217212</v>
       </c>
       <c r="M16">
-        <v>1.014657013224022</v>
+        <v>1.050595333395499</v>
       </c>
       <c r="N16">
-        <v>1.005812219818025</v>
+        <v>1.011558848355358</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9779894136036177</v>
+        <v>1.016266693553832</v>
       </c>
       <c r="D17">
-        <v>1.001817539589164</v>
+        <v>1.023377692934841</v>
       </c>
       <c r="E17">
-        <v>0.9978172694982692</v>
+        <v>1.043837968536824</v>
       </c>
       <c r="F17">
-        <v>1.002280034070138</v>
+        <v>1.047606915244677</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037105930748516</v>
+        <v>1.029444982137981</v>
       </c>
       <c r="J17">
-        <v>1.00632051755805</v>
+        <v>1.022583831849688</v>
       </c>
       <c r="K17">
-        <v>1.015793775626094</v>
+        <v>1.026788120595238</v>
       </c>
       <c r="L17">
-        <v>1.011863678431331</v>
+        <v>1.047176719038741</v>
       </c>
       <c r="M17">
-        <v>1.016248203785874</v>
+        <v>1.050932798093664</v>
       </c>
       <c r="N17">
-        <v>1.0061109067332</v>
+        <v>1.011618754378253</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9789535677725898</v>
+        <v>1.016453546197996</v>
       </c>
       <c r="D18">
-        <v>1.002494484300721</v>
+        <v>1.023513398337155</v>
       </c>
       <c r="E18">
-        <v>0.9989219666808488</v>
+        <v>1.044074059817208</v>
       </c>
       <c r="F18">
-        <v>1.003409329953791</v>
+        <v>1.047845981261696</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037325861753757</v>
+        <v>1.029473042516047</v>
       </c>
       <c r="J18">
-        <v>1.006835960373778</v>
+        <v>1.022688587257536</v>
       </c>
       <c r="K18">
-        <v>1.016270298168785</v>
+        <v>1.026880850601454</v>
       </c>
       <c r="L18">
-        <v>1.012759334365807</v>
+        <v>1.047370463923707</v>
       </c>
       <c r="M18">
-        <v>1.017169472282782</v>
+        <v>1.051129683895474</v>
       </c>
       <c r="N18">
-        <v>1.006283764045116</v>
+        <v>1.011653686810194</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9792811352547005</v>
+        <v>1.016517268029822</v>
       </c>
       <c r="D19">
-        <v>1.002724537169822</v>
+        <v>1.023559674888326</v>
       </c>
       <c r="E19">
-        <v>0.9992973773732836</v>
+        <v>1.044154584502977</v>
       </c>
       <c r="F19">
-        <v>1.003793070199198</v>
+        <v>1.047927516839483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037400384478562</v>
+        <v>1.029482585522578</v>
       </c>
       <c r="J19">
-        <v>1.007011035900135</v>
+        <v>1.022724303121261</v>
       </c>
       <c r="K19">
-        <v>1.01643211479581</v>
+        <v>1.026912459506302</v>
       </c>
       <c r="L19">
-        <v>1.013063641413972</v>
+        <v>1.047436537462291</v>
       </c>
       <c r="M19">
-        <v>1.017482456157523</v>
+        <v>1.051196825039676</v>
       </c>
       <c r="N19">
-        <v>1.006342475622114</v>
+        <v>1.011665596203142</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9778114987577796</v>
+        <v>1.016232328128464</v>
       </c>
       <c r="D20">
-        <v>1.00169265414741</v>
+        <v>1.023352733102282</v>
       </c>
       <c r="E20">
-        <v>0.9976134649035127</v>
+        <v>1.043794552557828</v>
       </c>
       <c r="F20">
-        <v>1.00207167711043</v>
+        <v>1.047562950464402</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037065253030827</v>
+        <v>1.029439808848292</v>
       </c>
       <c r="J20">
-        <v>1.006225382400101</v>
+        <v>1.022564561452927</v>
       </c>
       <c r="K20">
-        <v>1.015705805427741</v>
+        <v>1.026771059045076</v>
       </c>
       <c r="L20">
-        <v>1.011698408863518</v>
+        <v>1.047141086607117</v>
       </c>
       <c r="M20">
-        <v>1.016078196127295</v>
+        <v>1.050896586317297</v>
       </c>
       <c r="N20">
-        <v>1.006079001941974</v>
+        <v>1.011612328033324</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9729491130548407</v>
+        <v>1.015306653670812</v>
       </c>
       <c r="D21">
-        <v>0.9982833831455038</v>
+        <v>1.02268026559114</v>
       </c>
       <c r="E21">
-        <v>0.9920485587152729</v>
+        <v>1.042625697192905</v>
       </c>
       <c r="F21">
-        <v>0.9963808362595238</v>
+        <v>1.04637911691499</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035942717420605</v>
+        <v>1.029299017830444</v>
       </c>
       <c r="J21">
-        <v>1.00362303504364</v>
+        <v>1.022045020969385</v>
       </c>
       <c r="K21">
-        <v>1.013297350504114</v>
+        <v>1.02631069015688</v>
       </c>
       <c r="L21">
-        <v>1.007182155866439</v>
+        <v>1.046181350375406</v>
       </c>
       <c r="M21">
-        <v>1.011431100744986</v>
+        <v>1.049921051562323</v>
       </c>
       <c r="N21">
-        <v>1.005206215206406</v>
+        <v>1.011439034496539</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9698242493702248</v>
+        <v>1.01472518358664</v>
       </c>
       <c r="D22">
-        <v>0.9960964314637866</v>
+        <v>1.022257712694451</v>
       </c>
       <c r="E22">
-        <v>0.9884769066634388</v>
+        <v>1.041892055561025</v>
       </c>
       <c r="F22">
-        <v>0.992726795933452</v>
+        <v>1.045635877252383</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035210960889358</v>
+        <v>1.029209181574014</v>
       </c>
       <c r="J22">
-        <v>1.001948494310162</v>
+        <v>1.021718213661692</v>
       </c>
       <c r="K22">
-        <v>1.011745617479076</v>
+        <v>1.02602073624302</v>
       </c>
       <c r="L22">
-        <v>1.004280147442306</v>
+        <v>1.045578545768518</v>
       </c>
       <c r="M22">
-        <v>1.008443726596832</v>
+        <v>1.049308136048125</v>
       </c>
       <c r="N22">
-        <v>1.00464455745493</v>
+        <v>1.011329992942348</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9714874122325357</v>
+        <v>1.015033380398418</v>
       </c>
       <c r="D23">
-        <v>0.9972599984601287</v>
+        <v>1.022481691333352</v>
       </c>
       <c r="E23">
-        <v>0.9903774411043937</v>
+        <v>1.042280852752278</v>
       </c>
       <c r="F23">
-        <v>0.9946713153711498</v>
+        <v>1.046029779633603</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035601386763987</v>
+        <v>1.02925692996119</v>
       </c>
       <c r="J23">
-        <v>1.002839932182455</v>
+        <v>1.021891474414464</v>
       </c>
       <c r="K23">
-        <v>1.012571856334353</v>
+        <v>1.026174493471344</v>
       </c>
       <c r="L23">
-        <v>1.005824669278496</v>
+        <v>1.045898044893766</v>
       </c>
       <c r="M23">
-        <v>1.010033800541947</v>
+        <v>1.04963301196499</v>
       </c>
       <c r="N23">
-        <v>1.004943557789124</v>
+        <v>1.011387805862503</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9778919126528137</v>
+        <v>1.016247856203815</v>
       </c>
       <c r="D24">
-        <v>1.001749098634357</v>
+        <v>1.023364011293242</v>
       </c>
       <c r="E24">
-        <v>0.9977055787383128</v>
+        <v>1.043814169938468</v>
       </c>
       <c r="F24">
-        <v>1.002165849026137</v>
+        <v>1.047582815886906</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037083642128522</v>
+        <v>1.029442146887776</v>
       </c>
       <c r="J24">
-        <v>1.006268382348988</v>
+        <v>1.022573268970342</v>
       </c>
       <c r="K24">
-        <v>1.01574556760841</v>
+        <v>1.026778768600121</v>
       </c>
       <c r="L24">
-        <v>1.011773107149971</v>
+        <v>1.047157187158576</v>
       </c>
       <c r="M24">
-        <v>1.01615503638619</v>
+        <v>1.050912948710969</v>
       </c>
       <c r="N24">
-        <v>1.006093422545346</v>
+        <v>1.011615231852111</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9850480024880802</v>
+        <v>1.017659484199981</v>
       </c>
       <c r="D25">
-        <v>1.006779729012061</v>
+        <v>1.024388944623788</v>
       </c>
       <c r="E25">
-        <v>1.005914970434088</v>
+        <v>1.045598974155789</v>
       </c>
       <c r="F25">
-        <v>1.010554870618796</v>
+        <v>1.049389713204044</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038694975401684</v>
+        <v>1.029651333955682</v>
       </c>
       <c r="J25">
-        <v>1.010089255466271</v>
+        <v>1.023363758007038</v>
       </c>
       <c r="K25">
-        <v>1.019273702257872</v>
+        <v>1.027477772801704</v>
       </c>
       <c r="L25">
-        <v>1.018422152835246</v>
+        <v>1.048621023167914</v>
       </c>
       <c r="M25">
-        <v>1.022991515987597</v>
+        <v>1.052400137535026</v>
       </c>
       <c r="N25">
-        <v>1.007374635471061</v>
+        <v>1.011878763637682</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_211/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_211/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018787195804972</v>
+        <v>0.9905519495323254</v>
       </c>
       <c r="D2">
-        <v>1.025207213978797</v>
+        <v>1.010658379911791</v>
       </c>
       <c r="E2">
-        <v>1.047026912938945</v>
+        <v>1.012247659085664</v>
       </c>
       <c r="F2">
-        <v>1.050834632974161</v>
+        <v>1.017020481511149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029813525044201</v>
+        <v>1.039896838243888</v>
       </c>
       <c r="J2">
-        <v>1.023993650164586</v>
+        <v>1.013018969808922</v>
       </c>
       <c r="K2">
-        <v>1.028033461103018</v>
+        <v>1.021971197092352</v>
       </c>
       <c r="L2">
-        <v>1.049790700560008</v>
+        <v>1.023538961370128</v>
       </c>
       <c r="M2">
-        <v>1.053587809174155</v>
+        <v>1.028247679275237</v>
       </c>
       <c r="N2">
-        <v>1.012088632271986</v>
+        <v>1.008356720937039</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019607034777099</v>
+        <v>0.9944386824792615</v>
       </c>
       <c r="D3">
-        <v>1.025801775569234</v>
+        <v>1.013401759899311</v>
       </c>
       <c r="E3">
-        <v>1.048066251768544</v>
+        <v>1.016731131459346</v>
       </c>
       <c r="F3">
-        <v>1.051885928316401</v>
+        <v>1.021594693814839</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029928579032239</v>
+        <v>1.040723135646049</v>
       </c>
       <c r="J3">
-        <v>1.024450641096581</v>
+        <v>1.015082111362021</v>
       </c>
       <c r="K3">
-        <v>1.028435854714587</v>
+        <v>1.023865987029857</v>
       </c>
       <c r="L3">
-        <v>1.050641210117141</v>
+        <v>1.027154318141338</v>
       </c>
       <c r="M3">
-        <v>1.054451015415647</v>
+        <v>1.031958525770089</v>
       </c>
       <c r="N3">
-        <v>1.012240820814844</v>
+        <v>1.009048096908675</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020137989574242</v>
+        <v>0.9969055432882875</v>
       </c>
       <c r="D4">
-        <v>1.026186683588852</v>
+        <v>1.015144639079406</v>
       </c>
       <c r="E4">
-        <v>1.048739939061301</v>
+        <v>1.019582290137269</v>
       </c>
       <c r="F4">
-        <v>1.052567178993945</v>
+        <v>1.024501965574267</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.030001768523249</v>
+        <v>1.041236951313555</v>
       </c>
       <c r="J4">
-        <v>1.024746168894025</v>
+        <v>1.016388738187729</v>
       </c>
       <c r="K4">
-        <v>1.028695721129177</v>
+        <v>1.025063654260728</v>
       </c>
       <c r="L4">
-        <v>1.051192107020271</v>
+        <v>1.029449982173957</v>
       </c>
       <c r="M4">
-        <v>1.055009956545016</v>
+        <v>1.034313400641323</v>
       </c>
       <c r="N4">
-        <v>1.012339204552825</v>
+        <v>1.009485841606845</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0203613126653</v>
+        <v>0.997931458428636</v>
       </c>
       <c r="D5">
-        <v>1.026348542003271</v>
+        <v>1.015869822383692</v>
       </c>
       <c r="E5">
-        <v>1.049023435280809</v>
+        <v>1.020769392632949</v>
       </c>
       <c r="F5">
-        <v>1.052853813281808</v>
+        <v>1.025712044876297</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.030032235587651</v>
+        <v>1.041448050375019</v>
       </c>
       <c r="J5">
-        <v>1.024870365598228</v>
+        <v>1.016931434811624</v>
       </c>
       <c r="K5">
-        <v>1.028804845910927</v>
+        <v>1.025560517861606</v>
       </c>
       <c r="L5">
-        <v>1.051423837358037</v>
+        <v>1.030404966193838</v>
       </c>
       <c r="M5">
-        <v>1.055245027527797</v>
+        <v>1.035292667880146</v>
       </c>
       <c r="N5">
-        <v>1.012380542553146</v>
+        <v>1.009667625023797</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020398815986051</v>
+        <v>0.9981030703950518</v>
       </c>
       <c r="D6">
-        <v>1.026375721221205</v>
+        <v>1.015991148420154</v>
       </c>
       <c r="E6">
-        <v>1.049071051822616</v>
+        <v>1.020968048774116</v>
       </c>
       <c r="F6">
-        <v>1.052901954278134</v>
+        <v>1.025914523243707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.030037333426892</v>
+        <v>1.041483209317361</v>
       </c>
       <c r="J6">
-        <v>1.024891216207961</v>
+        <v>1.017022173500034</v>
       </c>
       <c r="K6">
-        <v>1.028823161191817</v>
+        <v>1.025643558856849</v>
       </c>
       <c r="L6">
-        <v>1.051462753691855</v>
+        <v>1.030564729104535</v>
       </c>
       <c r="M6">
-        <v>1.055284502354211</v>
+        <v>1.035456472563187</v>
       </c>
       <c r="N6">
-        <v>1.012387482053</v>
+        <v>1.009698017308762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020140973199075</v>
+        <v>0.9969192949679209</v>
       </c>
       <c r="D7">
-        <v>1.026188846181719</v>
+        <v>1.015154358312097</v>
       </c>
       <c r="E7">
-        <v>1.048743726060182</v>
+        <v>1.019598196983557</v>
       </c>
       <c r="F7">
-        <v>1.052571008087345</v>
+        <v>1.024518181834357</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03000217681226</v>
+        <v>1.041239791210627</v>
       </c>
       <c r="J7">
-        <v>1.024747828587486</v>
+        <v>1.016396015462291</v>
       </c>
       <c r="K7">
-        <v>1.028697179744855</v>
+        <v>1.025070319242294</v>
       </c>
       <c r="L7">
-        <v>1.051195202889768</v>
+        <v>1.029462782000198</v>
       </c>
       <c r="M7">
-        <v>1.05501309721421</v>
+        <v>1.034326527323713</v>
       </c>
       <c r="N7">
-        <v>1.012339757002207</v>
+        <v>1.00948827934854</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019064167258114</v>
+        <v>0.9918756773253176</v>
       </c>
       <c r="D8">
-        <v>1.025408109150697</v>
+        <v>1.011592324885795</v>
       </c>
       <c r="E8">
-        <v>1.047377920445314</v>
+        <v>1.013773478758035</v>
       </c>
       <c r="F8">
-        <v>1.051189717061055</v>
+        <v>1.018577511881693</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029852668223087</v>
+        <v>1.04018045885237</v>
       </c>
       <c r="J8">
-        <v>1.024148128164965</v>
+        <v>1.013722202744067</v>
       </c>
       <c r="K8">
-        <v>1.028169556632767</v>
+        <v>1.022617527343744</v>
       </c>
       <c r="L8">
-        <v>1.050078017699466</v>
+        <v>1.024770056501644</v>
       </c>
       <c r="M8">
-        <v>1.053879452630546</v>
+        <v>1.02951158422124</v>
       </c>
       <c r="N8">
-        <v>1.012140084001919</v>
+        <v>1.008592403360277</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017170315598358</v>
+        <v>0.9826023659807955</v>
       </c>
       <c r="D9">
-        <v>1.024033855725973</v>
+        <v>1.005058837223005</v>
       </c>
       <c r="E9">
-        <v>1.04498016574835</v>
+        <v>1.003106529458314</v>
       </c>
       <c r="F9">
-        <v>1.048763352199288</v>
+        <v>1.007685852482817</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029579605627125</v>
+        <v>1.038150096316659</v>
       </c>
       <c r="J9">
-        <v>1.023090079616053</v>
+        <v>1.00878480026786</v>
       </c>
       <c r="K9">
-        <v>1.027235969169979</v>
+        <v>1.01807036808589</v>
       </c>
       <c r="L9">
-        <v>1.048113724687039</v>
+        <v>1.016149405660143</v>
       </c>
       <c r="M9">
-        <v>1.051884848800182</v>
+        <v>1.020655450820889</v>
       </c>
       <c r="N9">
-        <v>1.011787544274542</v>
+        <v>1.006937268272173</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015910264834407</v>
+        <v>0.9761351551341734</v>
       </c>
       <c r="D10">
-        <v>1.02311879754191</v>
+        <v>1.000516440542847</v>
       </c>
       <c r="E10">
-        <v>1.04338774906076</v>
+        <v>0.9956938454005418</v>
       </c>
       <c r="F10">
-        <v>1.047150978311389</v>
+        <v>1.000108967115804</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02939113861469</v>
+        <v>1.036680574465186</v>
       </c>
       <c r="J10">
-        <v>1.022383903573019</v>
+        <v>1.005328696523197</v>
       </c>
       <c r="K10">
-        <v>1.026611059390858</v>
+        <v>1.014876376752582</v>
       </c>
       <c r="L10">
-        <v>1.046807158087158</v>
+        <v>1.010141286511404</v>
       </c>
       <c r="M10">
-        <v>1.050557203200968</v>
+        <v>1.014476254406395</v>
       </c>
       <c r="N10">
-        <v>1.011552077089852</v>
+        <v>1.005778279004424</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015365263579589</v>
+        <v>0.9732610323718953</v>
       </c>
       <c r="D11">
-        <v>1.022722851536198</v>
+        <v>0.9985018591052333</v>
       </c>
       <c r="E11">
-        <v>1.042699670093717</v>
+        <v>0.9924052670848326</v>
       </c>
       <c r="F11">
-        <v>1.046454049236553</v>
+        <v>0.9967457081532849</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029308013756052</v>
+        <v>1.03601533147534</v>
       </c>
       <c r="J11">
-        <v>1.022077942656774</v>
+        <v>1.003790100143744</v>
       </c>
       <c r="K11">
-        <v>1.026339883795899</v>
+        <v>1.013452083579904</v>
       </c>
       <c r="L11">
-        <v>1.046242113265107</v>
+        <v>1.007471844395559</v>
       </c>
       <c r="M11">
-        <v>1.049982825674315</v>
+        <v>1.011729257711851</v>
       </c>
       <c r="N11">
-        <v>1.011450017593224</v>
+        <v>1.005262249009414</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015162918747787</v>
+        <v>0.9721818086453804</v>
       </c>
       <c r="D12">
-        <v>1.022575823338899</v>
+        <v>0.9977460800885126</v>
       </c>
       <c r="E12">
-        <v>1.042444305344987</v>
+        <v>0.9911712274732374</v>
       </c>
       <c r="F12">
-        <v>1.046195365931827</v>
+        <v>0.9954833757473582</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029276910086729</v>
+        <v>1.035763753558424</v>
       </c>
       <c r="J12">
-        <v>1.021964268859148</v>
+        <v>1.003211996108296</v>
       </c>
       <c r="K12">
-        <v>1.026239070289585</v>
+        <v>1.012916589417575</v>
       </c>
       <c r="L12">
-        <v>1.046032337492084</v>
+        <v>1.006469550310165</v>
       </c>
       <c r="M12">
-        <v>1.049769552586861</v>
+        <v>1.010697621753088</v>
       </c>
       <c r="N12">
-        <v>1.011412093421991</v>
+        <v>1.005068351040097</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015206318174663</v>
+        <v>0.9724138422581152</v>
       </c>
       <c r="D13">
-        <v>1.022607359378343</v>
+        <v>0.9979085406173313</v>
       </c>
       <c r="E13">
-        <v>1.042499072052521</v>
+        <v>0.991436510763418</v>
       </c>
       <c r="F13">
-        <v>1.046250845892686</v>
+        <v>0.9957547532199557</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029283592210257</v>
+        <v>1.035817922662768</v>
       </c>
       <c r="J13">
-        <v>1.021988653447339</v>
+        <v>1.003336304759958</v>
       </c>
       <c r="K13">
-        <v>1.026260699039014</v>
+        <v>1.013031750675829</v>
       </c>
       <c r="L13">
-        <v>1.04607733025126</v>
+        <v>1.006685041155723</v>
       </c>
       <c r="M13">
-        <v>1.049815296920628</v>
+        <v>1.010919430929074</v>
       </c>
       <c r="N13">
-        <v>1.011420228945735</v>
+        <v>1.005110044865074</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015348535789431</v>
+        <v>0.9731720643675387</v>
       </c>
       <c r="D14">
-        <v>1.022710697236783</v>
+        <v>0.9984395404882846</v>
       </c>
       <c r="E14">
-        <v>1.04267855710321</v>
+        <v>0.9923035203290003</v>
       </c>
       <c r="F14">
-        <v>1.04643266256975</v>
+        <v>0.9966416340799155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02930544735251</v>
+        <v>1.03599462808197</v>
       </c>
       <c r="J14">
-        <v>1.022068546875404</v>
+        <v>1.003742450213314</v>
       </c>
       <c r="K14">
-        <v>1.026331552284374</v>
+        <v>1.013407952493657</v>
       </c>
       <c r="L14">
-        <v>1.046224770946231</v>
+        <v>1.007389216917361</v>
       </c>
       <c r="M14">
-        <v>1.049965194892573</v>
+        <v>1.01164421580541</v>
       </c>
       <c r="N14">
-        <v>1.011446883067623</v>
+        <v>1.005246267207</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015436173107754</v>
+        <v>0.9736376693216767</v>
       </c>
       <c r="D15">
-        <v>1.022774372953169</v>
+        <v>0.9987657071449599</v>
       </c>
       <c r="E15">
-        <v>1.042789172735286</v>
+        <v>0.9928360343313525</v>
       </c>
       <c r="F15">
-        <v>1.046544710658072</v>
+        <v>0.9971863176847673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029318882912079</v>
+        <v>1.036102904819991</v>
       </c>
       <c r="J15">
-        <v>1.022117768401138</v>
+        <v>1.003991806520173</v>
       </c>
       <c r="K15">
-        <v>1.026375195837792</v>
+        <v>1.01363888072933</v>
       </c>
       <c r="L15">
-        <v>1.046315628231227</v>
+        <v>1.00782164218535</v>
       </c>
       <c r="M15">
-        <v>1.050057562118272</v>
+        <v>1.012089267803798</v>
       </c>
       <c r="N15">
-        <v>1.011463303611658</v>
+        <v>1.005329901101009</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015946447723925</v>
+        <v>0.9763242996040266</v>
       </c>
       <c r="D16">
-        <v>1.023145081221656</v>
+        <v>1.000649110935184</v>
       </c>
       <c r="E16">
-        <v>1.043433445177271</v>
+        <v>0.995910380254021</v>
       </c>
       <c r="F16">
-        <v>1.047197257395409</v>
+        <v>1.000330381570467</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029396623417123</v>
+        <v>1.03672410396783</v>
       </c>
       <c r="J16">
-        <v>1.022404205446495</v>
+        <v>1.005429898120432</v>
       </c>
       <c r="K16">
-        <v>1.026629044183954</v>
+        <v>1.01497001205027</v>
       </c>
       <c r="L16">
-        <v>1.046844673217212</v>
+        <v>1.010316972574533</v>
       </c>
       <c r="M16">
-        <v>1.050595333395499</v>
+        <v>1.014657013224022</v>
       </c>
       <c r="N16">
-        <v>1.011558848355358</v>
+        <v>1.005812219818025</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016266693553832</v>
+        <v>0.9779894136036178</v>
       </c>
       <c r="D17">
-        <v>1.023377692934841</v>
+        <v>1.001817539589164</v>
       </c>
       <c r="E17">
-        <v>1.043837968536824</v>
+        <v>0.9978172694982697</v>
       </c>
       <c r="F17">
-        <v>1.047606915244677</v>
+        <v>1.002280034070139</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029444982137981</v>
+        <v>1.037105930748516</v>
       </c>
       <c r="J17">
-        <v>1.022583831849688</v>
+        <v>1.00632051755805</v>
       </c>
       <c r="K17">
-        <v>1.026788120595238</v>
+        <v>1.015793775626094</v>
       </c>
       <c r="L17">
-        <v>1.047176719038741</v>
+        <v>1.011863678431332</v>
       </c>
       <c r="M17">
-        <v>1.050932798093664</v>
+        <v>1.016248203785875</v>
       </c>
       <c r="N17">
-        <v>1.011618754378253</v>
+        <v>1.0061109067332</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016453546197996</v>
+        <v>0.9789535677725901</v>
       </c>
       <c r="D18">
-        <v>1.023513398337155</v>
+        <v>1.002494484300721</v>
       </c>
       <c r="E18">
-        <v>1.044074059817208</v>
+        <v>0.9989219666808493</v>
       </c>
       <c r="F18">
-        <v>1.047845981261696</v>
+        <v>1.003409329953792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029473042516047</v>
+        <v>1.037325861753757</v>
       </c>
       <c r="J18">
-        <v>1.022688587257536</v>
+        <v>1.006835960373778</v>
       </c>
       <c r="K18">
-        <v>1.026880850601454</v>
+        <v>1.016270298168786</v>
       </c>
       <c r="L18">
-        <v>1.047370463923707</v>
+        <v>1.012759334365807</v>
       </c>
       <c r="M18">
-        <v>1.051129683895474</v>
+        <v>1.017169472282782</v>
       </c>
       <c r="N18">
-        <v>1.011653686810194</v>
+        <v>1.006283764045116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016517268029822</v>
+        <v>0.9792811352547007</v>
       </c>
       <c r="D19">
-        <v>1.023559674888326</v>
+        <v>1.002724537169822</v>
       </c>
       <c r="E19">
-        <v>1.044154584502977</v>
+        <v>0.9992973773732833</v>
       </c>
       <c r="F19">
-        <v>1.047927516839483</v>
+        <v>1.003793070199198</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029482585522578</v>
+        <v>1.037400384478562</v>
       </c>
       <c r="J19">
-        <v>1.022724303121261</v>
+        <v>1.007011035900135</v>
       </c>
       <c r="K19">
-        <v>1.026912459506302</v>
+        <v>1.01643211479581</v>
       </c>
       <c r="L19">
-        <v>1.047436537462291</v>
+        <v>1.013063641413972</v>
       </c>
       <c r="M19">
-        <v>1.051196825039676</v>
+        <v>1.017482456157523</v>
       </c>
       <c r="N19">
-        <v>1.011665596203142</v>
+        <v>1.006342475622114</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016232328128464</v>
+        <v>0.9778114987577794</v>
       </c>
       <c r="D20">
-        <v>1.023352733102282</v>
+        <v>1.00169265414741</v>
       </c>
       <c r="E20">
-        <v>1.043794552557828</v>
+        <v>0.997613464903513</v>
       </c>
       <c r="F20">
-        <v>1.047562950464402</v>
+        <v>1.002071677110431</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029439808848292</v>
+        <v>1.037065253030827</v>
       </c>
       <c r="J20">
-        <v>1.022564561452927</v>
+        <v>1.006225382400101</v>
       </c>
       <c r="K20">
-        <v>1.026771059045076</v>
+        <v>1.015705805427741</v>
       </c>
       <c r="L20">
-        <v>1.047141086607117</v>
+        <v>1.011698408863518</v>
       </c>
       <c r="M20">
-        <v>1.050896586317297</v>
+        <v>1.016078196127295</v>
       </c>
       <c r="N20">
-        <v>1.011612328033324</v>
+        <v>1.006079001941974</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015306653670812</v>
+        <v>0.9729491130548404</v>
       </c>
       <c r="D21">
-        <v>1.02268026559114</v>
+        <v>0.9982833831455035</v>
       </c>
       <c r="E21">
-        <v>1.042625697192905</v>
+        <v>0.9920485587152724</v>
       </c>
       <c r="F21">
-        <v>1.04637911691499</v>
+        <v>0.9963808362595232</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029299017830444</v>
+        <v>1.035942717420605</v>
       </c>
       <c r="J21">
-        <v>1.022045020969385</v>
+        <v>1.00362303504364</v>
       </c>
       <c r="K21">
-        <v>1.02631069015688</v>
+        <v>1.013297350504114</v>
       </c>
       <c r="L21">
-        <v>1.046181350375406</v>
+        <v>1.007182155866438</v>
       </c>
       <c r="M21">
-        <v>1.049921051562323</v>
+        <v>1.011431100744986</v>
       </c>
       <c r="N21">
-        <v>1.011439034496539</v>
+        <v>1.005206215206406</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.01472518358664</v>
+        <v>0.9698242493702245</v>
       </c>
       <c r="D22">
-        <v>1.022257712694451</v>
+        <v>0.9960964314637861</v>
       </c>
       <c r="E22">
-        <v>1.041892055561025</v>
+        <v>0.9884769066634389</v>
       </c>
       <c r="F22">
-        <v>1.045635877252383</v>
+        <v>0.992726795933452</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029209181574014</v>
+        <v>1.035210960889358</v>
       </c>
       <c r="J22">
-        <v>1.021718213661692</v>
+        <v>1.001948494310162</v>
       </c>
       <c r="K22">
-        <v>1.02602073624302</v>
+        <v>1.011745617479075</v>
       </c>
       <c r="L22">
-        <v>1.045578545768518</v>
+        <v>1.004280147442306</v>
       </c>
       <c r="M22">
-        <v>1.049308136048125</v>
+        <v>1.008443726596833</v>
       </c>
       <c r="N22">
-        <v>1.011329992942348</v>
+        <v>1.00464455745493</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015033380398418</v>
+        <v>0.9714874122325364</v>
       </c>
       <c r="D23">
-        <v>1.022481691333352</v>
+        <v>0.9972599984601296</v>
       </c>
       <c r="E23">
-        <v>1.042280852752278</v>
+        <v>0.9903774411043942</v>
       </c>
       <c r="F23">
-        <v>1.046029779633603</v>
+        <v>0.9946713153711503</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02925692996119</v>
+        <v>1.035601386763987</v>
       </c>
       <c r="J23">
-        <v>1.021891474414464</v>
+        <v>1.002839932182456</v>
       </c>
       <c r="K23">
-        <v>1.026174493471344</v>
+        <v>1.012571856334354</v>
       </c>
       <c r="L23">
-        <v>1.045898044893766</v>
+        <v>1.005824669278497</v>
       </c>
       <c r="M23">
-        <v>1.04963301196499</v>
+        <v>1.010033800541948</v>
       </c>
       <c r="N23">
-        <v>1.011387805862503</v>
+        <v>1.004943557789124</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016247856203815</v>
+        <v>0.9778919126528133</v>
       </c>
       <c r="D24">
-        <v>1.023364011293242</v>
+        <v>1.001749098634357</v>
       </c>
       <c r="E24">
-        <v>1.043814169938468</v>
+        <v>0.9977055787383126</v>
       </c>
       <c r="F24">
-        <v>1.047582815886906</v>
+        <v>1.002165849026137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029442146887776</v>
+        <v>1.037083642128522</v>
       </c>
       <c r="J24">
-        <v>1.022573268970342</v>
+        <v>1.006268382348988</v>
       </c>
       <c r="K24">
-        <v>1.026778768600121</v>
+        <v>1.01574556760841</v>
       </c>
       <c r="L24">
-        <v>1.047157187158576</v>
+        <v>1.011773107149971</v>
       </c>
       <c r="M24">
-        <v>1.050912948710969</v>
+        <v>1.01615503638619</v>
       </c>
       <c r="N24">
-        <v>1.011615231852111</v>
+        <v>1.006093422545346</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017659484199981</v>
+        <v>0.9850480024880812</v>
       </c>
       <c r="D25">
-        <v>1.024388944623788</v>
+        <v>1.006779729012062</v>
       </c>
       <c r="E25">
-        <v>1.045598974155789</v>
+        <v>1.005914970434089</v>
       </c>
       <c r="F25">
-        <v>1.049389713204044</v>
+        <v>1.010554870618797</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029651333955682</v>
+        <v>1.038694975401685</v>
       </c>
       <c r="J25">
-        <v>1.023363758007038</v>
+        <v>1.010089255466272</v>
       </c>
       <c r="K25">
-        <v>1.027477772801704</v>
+        <v>1.019273702257873</v>
       </c>
       <c r="L25">
-        <v>1.048621023167914</v>
+        <v>1.018422152835246</v>
       </c>
       <c r="M25">
-        <v>1.052400137535026</v>
+        <v>1.022991515987597</v>
       </c>
       <c r="N25">
-        <v>1.011878763637682</v>
+        <v>1.007374635471062</v>
       </c>
     </row>
   </sheetData>
